--- a/grade.xlsx
+++ b/grade.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
